--- a/StructureDefinition-no-basis-Procedure.xlsx
+++ b/StructureDefinition-no-basis-Procedure.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-procedure</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Procedure</t>
   </si>
   <si>
     <t>Version</t>
@@ -108,7 +108,7 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Derivation</t>

--- a/StructureDefinition-no-basis-Procedure.xlsx
+++ b/StructureDefinition-no-basis-Procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -782,6 +782,11 @@
   </si>
   <si>
     <t>A reference to a code defined by ICPC-2</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://hl7.org/fhir/sid/icpc-2"/&gt;
+&lt;/valueCoding&gt;</t>
   </si>
   <si>
     <t>Procedure.code.text</t>
@@ -4409,7 +4414,7 @@
         <v>73</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>73</v>
@@ -4477,7 +4482,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4503,16 +4508,16 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
@@ -4561,7 +4566,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4579,22 +4584,22 @@
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4613,13 +4618,13 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4670,7 +4675,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>82</v>
@@ -4685,21 +4690,21 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4722,16 +4727,16 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4781,7 +4786,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4796,21 +4801,21 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4833,16 +4838,16 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4892,7 +4897,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4907,21 +4912,21 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4944,13 +4949,13 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5001,7 +5006,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -5019,10 +5024,10 @@
         <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>73</v>
@@ -5030,7 +5035,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5053,13 +5058,13 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5110,7 +5115,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5128,10 +5133,10 @@
         <v>73</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>73</v>
@@ -5139,7 +5144,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5162,13 +5167,13 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5219,7 +5224,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -5234,10 +5239,10 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>73</v>
@@ -5248,7 +5253,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5357,7 +5362,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5468,11 +5473,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5494,10 +5499,10 @@
         <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>131</v>
@@ -5552,7 +5557,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5581,7 +5586,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5607,14 +5612,14 @@
         <v>187</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -5642,10 +5647,10 @@
         <v>191</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>73</v>
@@ -5663,7 +5668,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5678,21 +5683,21 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5715,17 +5720,17 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
@@ -5774,7 +5779,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>82</v>
@@ -5789,21 +5794,21 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5826,17 +5831,17 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -5885,7 +5890,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5903,7 +5908,7 @@
         <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
@@ -5914,7 +5919,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5937,17 +5942,17 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -5996,7 +6001,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6014,10 +6019,10 @@
         <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>73</v>
@@ -6025,7 +6030,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6051,13 +6056,13 @@
         <v>187</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6086,10 +6091,10 @@
         <v>191</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
@@ -6107,7 +6112,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6122,13 +6127,13 @@
         <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>73</v>
@@ -6136,7 +6141,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6159,16 +6164,16 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6218,7 +6223,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6233,13 +6238,13 @@
         <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>73</v>
@@ -6247,7 +6252,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6273,13 +6278,13 @@
         <v>187</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6309,7 +6314,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>73</v>
@@ -6327,7 +6332,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6345,18 +6350,18 @@
         <v>73</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6382,13 +6387,13 @@
         <v>187</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6417,10 +6422,10 @@
         <v>191</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -6438,7 +6443,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6456,7 +6461,7 @@
         <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
@@ -6467,7 +6472,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6490,16 +6495,16 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6549,7 +6554,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -6567,7 +6572,7 @@
         <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
@@ -6578,7 +6583,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6604,13 +6609,13 @@
         <v>187</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6639,10 +6644,10 @@
         <v>191</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>73</v>
@@ -6660,7 +6665,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6678,7 +6683,7 @@
         <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>73</v>
@@ -6689,7 +6694,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6712,17 +6717,17 @@
         <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>73</v>
@@ -6771,7 +6776,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6789,7 +6794,7 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -6800,7 +6805,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6826,10 +6831,10 @@
         <v>187</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6859,10 +6864,10 @@
         <v>191</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
@@ -6880,7 +6885,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6898,7 +6903,7 @@
         <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
@@ -6909,7 +6914,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6932,13 +6937,13 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6989,7 +6994,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7004,21 +7009,21 @@
         <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7041,13 +7046,13 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7098,7 +7103,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7116,7 +7121,7 @@
         <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>
@@ -7127,7 +7132,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7236,7 +7241,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7347,11 +7352,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7373,10 +7378,10 @@
         <v>128</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>131</v>
@@ -7431,7 +7436,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7460,7 +7465,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7486,10 +7491,10 @@
         <v>187</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7519,10 +7524,10 @@
         <v>106</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>73</v>
@@ -7540,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7558,7 +7563,7 @@
         <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>73</v>
@@ -7569,7 +7574,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7592,13 +7597,13 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7649,7 +7654,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>82</v>
@@ -7667,7 +7672,7 @@
         <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>73</v>
@@ -7678,7 +7683,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7701,19 +7706,19 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>73</v>
@@ -7762,7 +7767,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7780,7 +7785,7 @@
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
@@ -7791,7 +7796,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7817,13 +7822,13 @@
         <v>187</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7852,10 +7857,10 @@
         <v>191</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -7873,7 +7878,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7891,7 +7896,7 @@
         <v>73</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
